--- a/MEDIA/_ 1102 _201_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102 _201_會計科目餘額明細.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102 _201_2020-10-27~2020-10-28)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102 _201_2020-12-05~2020-12-05)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>9798171</v>
+        <v>17216053</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -446,17 +446,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>446508</v>
+        <v>600131</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10244679</v>
+        <v>17816184</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110649</t>
+          <t>112366</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
